--- a/ILUM/Result/infection_result.xlsx
+++ b/ILUM/Result/infection_result.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t xml:space="preserve">percentile</t>
   </si>
   <si>
-    <t xml:space="preserve">value</t>
+    <t xml:space="preserve">infection_score_cutoff</t>
   </si>
   <si>
     <t xml:space="preserve">10%</t>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">avg_infection_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infection_percentile</t>
   </si>
   <si>
     <t xml:space="preserve">Kaiser Foundation Hospitals (CA)</t>
@@ -1021,7 +1024,7 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -1029,13 +1032,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
         <v>4.92225035294892</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -1043,13 +1046,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
         <v>5.33488441876512</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -1057,13 +1060,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>5.02424374035216</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -1071,13 +1074,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
         <v>5.68291621959832</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1085,13 +1088,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
         <v>5.77735182380815</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -1099,13 +1102,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
         <v>5.14474069818737</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -1113,13 +1116,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
         <v>5.5944035535149</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -1127,13 +1130,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
         <v>5.22955759715921</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -1141,13 +1144,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
         <v>4.79347355091767</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -1155,13 +1158,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
         <v>4.40512121251938</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -1169,13 +1172,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
         <v>5.41338792026215</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -1183,13 +1186,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="n">
         <v>5.5919549423862</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -1197,13 +1200,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="n">
         <v>5.38192574609686</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -1211,13 +1214,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="n">
         <v>6.13654923132532</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -1225,13 +1228,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="n">
         <v>5.36178725317261</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -1239,13 +1242,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
         <v>6.15153921482706</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
@@ -1253,13 +1256,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" t="n">
         <v>5.81215735921948</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -1267,13 +1270,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" t="n">
         <v>6.95336009170229</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -1281,13 +1284,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" t="n">
         <v>5.84557372774222</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -1295,13 +1298,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" t="n">
         <v>4.91047370529575</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1309,13 +1312,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" t="n">
         <v>5.37636580117484</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -1323,13 +1326,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" t="n">
         <v>5.46045865751535</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -1337,13 +1340,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="n">
         <v>5.54195781580038</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -1351,13 +1354,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="n">
         <v>5.351649499189</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -1365,13 +1368,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" t="n">
         <v>6.33046791728843</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -1379,13 +1382,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" t="n">
         <v>6.18574619669695</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
@@ -1393,13 +1396,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" t="n">
         <v>4.37699931338707</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -1407,13 +1410,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" t="n">
         <v>5.0194744955637</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -1421,13 +1424,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" t="n">
         <v>5.49437174781171</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -1435,13 +1438,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" t="n">
         <v>4.96598110620996</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -1449,13 +1452,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" t="n">
         <v>4.24713175458111</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33">
@@ -1463,13 +1466,13 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" t="n">
         <v>4.06583864769606</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34">
@@ -1477,13 +1480,13 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" t="n">
         <v>5.32767048245817</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -1491,13 +1494,13 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" t="n">
         <v>6.26903867191773</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
@@ -1505,13 +1508,13 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36" t="n">
         <v>5.51993683843016</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
@@ -1519,13 +1522,13 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37" t="n">
         <v>4.58691094501804</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -1533,13 +1536,13 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38" t="n">
         <v>5.00175121928722</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
@@ -1547,13 +1550,13 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39" t="n">
         <v>5.32285857841011</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -1561,13 +1564,13 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40" t="n">
         <v>5.41053877598466</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41">
@@ -1575,13 +1578,13 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41" t="n">
         <v>6.06417835306525</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
@@ -1589,13 +1592,13 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42" t="n">
         <v>6.58458800963446</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
@@ -1603,13 +1606,13 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43" t="n">
         <v>5.21804059208714</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
@@ -1617,13 +1620,13 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44" t="n">
         <v>5.87083684075079</v>
       </c>
       <c r="D44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
@@ -1631,13 +1634,13 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45" t="n">
         <v>6.62631761649693</v>
       </c>
       <c r="D45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
@@ -1645,13 +1648,13 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C46" t="n">
         <v>5.42875045625363</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
@@ -1659,13 +1662,13 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47" t="n">
         <v>4.68877037702449</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -1673,13 +1676,13 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48" t="n">
         <v>5.15720433813745</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -1687,13 +1690,13 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C49" t="n">
         <v>7.74805313923901</v>
       </c>
       <c r="D49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50">
@@ -1701,13 +1704,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C50" t="n">
         <v>5.3668920993228</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51">
@@ -1715,13 +1718,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C51" t="n">
         <v>4.83271040990858</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52">
@@ -1729,13 +1732,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C52" t="n">
         <v>4.04193447969167</v>
       </c>
       <c r="D52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53">
@@ -1743,13 +1746,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C53" t="n">
         <v>3.36</v>
       </c>
       <c r="D53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54">
@@ -1757,13 +1760,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C54" t="n">
         <v>5.05901093912458</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55">
@@ -1771,13 +1774,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C55" t="n">
         <v>5.18329607293794</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
@@ -1785,13 +1788,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C56" t="n">
         <v>5.01645227136282</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
@@ -1799,13 +1802,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" t="n">
         <v>4.11032043674341</v>
       </c>
       <c r="D57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58">
@@ -1813,13 +1816,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" t="n">
         <v>6.13654923132532</v>
       </c>
       <c r="D58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
@@ -1827,13 +1830,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C59" t="n">
         <v>5.07062207048855</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60">
@@ -1841,13 +1844,13 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C60" t="n">
         <v>5.03468545496692</v>
       </c>
       <c r="D60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
@@ -1855,13 +1858,13 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C61" t="n">
         <v>6.63</v>
       </c>
       <c r="D61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62">
@@ -1869,13 +1872,13 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C62" t="n">
         <v>4.14507290269118</v>
       </c>
       <c r="D62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63">
@@ -1883,13 +1886,13 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C63" t="n">
         <v>5.15968022948011</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
@@ -1897,13 +1900,13 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C64" t="n">
         <v>5.68418865480665</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65">
@@ -1911,13 +1914,13 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C65" t="n">
         <v>4.34794083361904</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -1925,13 +1928,13 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C66" t="n">
         <v>6.25232035257208</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
@@ -1939,13 +1942,13 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C67" t="n">
         <v>7.54030670560869</v>
       </c>
       <c r="D67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68">
@@ -1953,13 +1956,13 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C68" t="n">
         <v>8.35</v>
       </c>
       <c r="D68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69">
@@ -1967,13 +1970,13 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C69" t="n">
         <v>4.81703310647133</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70">
@@ -1981,13 +1984,13 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C70" t="n">
         <v>4.93654875481133</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71">
@@ -1995,13 +1998,13 @@
         <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C71" t="n">
         <v>5.31643995395056</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72">
@@ -2009,13 +2012,13 @@
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C72" t="n">
         <v>4.58130496226434</v>
       </c>
       <c r="D72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -2023,13 +2026,13 @@
         <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C73" t="n">
         <v>3.43615235237002</v>
       </c>
       <c r="D73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74">
@@ -2037,13 +2040,13 @@
         <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C74" t="n">
         <v>5.33748815165877</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75">
@@ -2051,13 +2054,13 @@
         <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C75" t="n">
         <v>4.47794929118119</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
@@ -2065,13 +2068,13 @@
         <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C76" t="n">
         <v>4.16139041425419</v>
       </c>
       <c r="D76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77">
@@ -2079,13 +2082,13 @@
         <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C77" t="n">
         <v>7.95225667148817</v>
       </c>
       <c r="D77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78">
@@ -2093,13 +2096,13 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C78" t="n">
         <v>5.9893672745817</v>
       </c>
       <c r="D78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
@@ -2107,13 +2110,13 @@
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C79" t="n">
         <v>7.44980528764915</v>
       </c>
       <c r="D79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80">
@@ -2121,13 +2124,13 @@
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C80" t="n">
         <v>5.38961888980944</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81">
@@ -2135,13 +2138,13 @@
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C81" t="n">
         <v>2.92</v>
       </c>
       <c r="D81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82">
@@ -2149,13 +2152,13 @@
         <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C82" t="n">
         <v>4.79</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
@@ -2163,13 +2166,13 @@
         <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C83" t="n">
         <v>6.104299822087</v>
       </c>
       <c r="D83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84">
@@ -2177,13 +2180,13 @@
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C84" t="n">
         <v>6.24231184763355</v>
       </c>
       <c r="D84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85">
@@ -2191,13 +2194,13 @@
         <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C85" t="n">
         <v>6.08</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86">
@@ -2205,13 +2208,13 @@
         <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C86" t="n">
         <v>5.14</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
@@ -2219,13 +2222,13 @@
         <v>91</v>
       </c>
       <c r="B87" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C87" t="n">
         <v>5.12181784107946</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88">
@@ -2233,13 +2236,13 @@
         <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C88" t="n">
         <v>5.70241248075581</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89">
@@ -2247,13 +2250,13 @@
         <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C89" t="n">
         <v>3.71852781140944</v>
       </c>
       <c r="D89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90">
@@ -2261,13 +2264,13 @@
         <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C90" t="n">
         <v>5.55914045455801</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91">
@@ -2275,13 +2278,13 @@
         <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C91" t="n">
         <v>4.31</v>
       </c>
       <c r="D91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92">
@@ -2289,13 +2292,13 @@
         <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C92" t="n">
         <v>6.22443073341094</v>
       </c>
       <c r="D92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
@@ -2303,13 +2306,13 @@
         <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C93" t="n">
         <v>5.04066408393866</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
@@ -2317,13 +2320,13 @@
         <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C94" t="n">
         <v>4.96000395124404</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95">
@@ -2331,13 +2334,13 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C95" t="n">
         <v>5.62486548998751</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2356,7 +2359,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -2367,7 +2370,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" t="n">
         <v>5.81215735921948</v>
@@ -2378,7 +2381,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B3" t="n">
         <v>5.01645227136282</v>
@@ -2389,7 +2392,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" t="n">
         <v>5.36178725317261</v>
@@ -2398,7 +2401,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B5" t="n">
         <v>5.68291621959832</v>
@@ -2409,7 +2412,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B6" t="n">
         <v>4.65870818829459</v>
@@ -2418,7 +2421,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="n">
         <v>4.06583864769606</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" t="n">
         <v>6.28586307566871</v>
@@ -2438,7 +2441,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" t="n">
         <v>5.46045865751535</v>
@@ -2449,7 +2452,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10" t="n">
         <v>4.86406080194358</v>
@@ -2458,7 +2461,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B11" t="n">
         <v>5.07062207048855</v>
@@ -2469,7 +2472,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="n">
         <v>5.84557372774222</v>
@@ -2480,7 +2483,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" t="n">
         <v>5.3668920993228</v>
@@ -2491,7 +2494,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B14" t="n">
         <v>4.31</v>
@@ -2502,7 +2505,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B15" t="n">
         <v>6.58458800963446</v>
@@ -2513,7 +2516,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B16" t="n">
         <v>5.33748815165877</v>
@@ -2524,7 +2527,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B17" t="n">
         <v>5.93894454611227</v>
@@ -2533,7 +2536,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B18" t="n">
         <v>5.61865224867572</v>
@@ -2544,7 +2547,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B19" t="n">
         <v>6.25232035257208</v>
@@ -2555,7 +2558,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B20" t="n">
         <v>3.18</v>
@@ -2564,7 +2567,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B21" t="n">
         <v>5.21804059208714</v>
@@ -2575,7 +2578,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B22" t="n">
         <v>4.91047370529575</v>
@@ -2586,7 +2589,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B23" t="n">
         <v>4.61308449064309</v>
@@ -2595,7 +2598,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B24" t="n">
         <v>4.46024512155101</v>
@@ -2604,7 +2607,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B25" t="n">
         <v>3.25</v>
@@ -2613,7 +2616,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B26" t="n">
         <v>5.41338792026215</v>
@@ -2624,7 +2627,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B27" t="n">
         <v>3.43615235237002</v>
@@ -2635,7 +2638,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B28" t="n">
         <v>5.41053877598466</v>
@@ -2646,7 +2649,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B29" t="n">
         <v>4.37699931338707</v>
@@ -2657,7 +2660,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B30" t="n">
         <v>4.77642735147005</v>
@@ -2666,7 +2669,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B31" t="n">
         <v>5.32036937430771</v>
@@ -2677,7 +2680,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B32" t="n">
         <v>5.97067075547168</v>
@@ -2686,7 +2689,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B33" t="n">
         <v>5.32767048245817</v>
@@ -2697,7 +2700,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B34" t="n">
         <v>4.62322301352554</v>
@@ -2706,7 +2709,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" t="n">
         <v>5.49437174781171</v>
@@ -2717,7 +2720,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B36" t="n">
         <v>4.58130496226434</v>
@@ -2728,7 +2731,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B37" t="n">
         <v>5.10585624150831</v>
@@ -2737,7 +2740,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B38" t="n">
         <v>5.351649499189</v>
@@ -2748,7 +2751,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" t="n">
         <v>4.96598110620996</v>
@@ -2759,7 +2762,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B40" t="n">
         <v>4.92225035294892</v>
@@ -2770,7 +2773,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B41" t="n">
         <v>6.4163702608512</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B42" t="n">
         <v>4.7832306909276</v>
@@ -2788,7 +2791,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B43" t="n">
         <v>4.94404556285762</v>
@@ -2797,7 +2800,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B44" t="n">
         <v>5.22445545854395</v>
@@ -2806,7 +2809,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B45" t="n">
         <v>5.38192574609686</v>
@@ -2817,7 +2820,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B46" t="n">
         <v>5.68418865480665</v>
@@ -2828,7 +2831,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B47" t="n">
         <v>5.51993683843016</v>
@@ -2839,7 +2842,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B48" t="n">
         <v>6.06417835306525</v>
@@ -2850,7 +2853,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B49" t="n">
         <v>6.93733887176739</v>
@@ -2859,7 +2862,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B50" t="n">
         <v>5.42875045625363</v>
@@ -2870,7 +2873,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B51" t="n">
         <v>5.89157297502611</v>
@@ -2879,7 +2882,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B52" t="n">
         <v>5.36</v>
@@ -2888,7 +2891,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B53" t="n">
         <v>3.36</v>
@@ -2899,7 +2902,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B54" t="n">
         <v>7.54030670560869</v>
@@ -2910,7 +2913,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B55" t="n">
         <v>6.45593953706549</v>
@@ -2919,7 +2922,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B56" t="n">
         <v>5.15453075490805</v>
@@ -2928,7 +2931,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B57" t="n">
         <v>5.37636580117484</v>
@@ -2939,7 +2942,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B58" t="n">
         <v>6.95336009170229</v>
@@ -2950,7 +2953,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B59" t="n">
         <v>6.62631761649693</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B60" t="n">
         <v>4.98</v>
@@ -2970,7 +2973,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B61" t="n">
         <v>5.15720433813745</v>
@@ -2981,7 +2984,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B62" t="n">
         <v>5.38961888980944</v>
@@ -2990,7 +2993,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B63" t="n">
         <v>6.08</v>
@@ -3001,7 +3004,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B64" t="n">
         <v>4.34794083361904</v>
@@ -3012,7 +3015,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B65" t="n">
         <v>14.45</v>
@@ -3021,7 +3024,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B66" t="n">
         <v>5.42331608789159</v>
@@ -3030,7 +3033,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B67" t="n">
         <v>4.40512121251938</v>
@@ -3041,7 +3044,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B68" t="n">
         <v>4.95393541770357</v>
@@ -3050,7 +3053,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B69" t="n">
         <v>6.58105698104485</v>
@@ -3059,7 +3062,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B70" t="n">
         <v>7.95225667148817</v>
@@ -3070,7 +3073,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B71" t="n">
         <v>5.11542298541289</v>
@@ -3081,7 +3084,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B72" t="n">
         <v>3.92326938416542</v>
@@ -3090,7 +3093,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B73" t="n">
         <v>5.00175121928722</v>
@@ -3101,7 +3104,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B74" t="n">
         <v>5.62486548998751</v>
@@ -3112,7 +3115,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B75" t="n">
         <v>6.24231184763355</v>
@@ -3123,7 +3126,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B76" t="n">
         <v>5.32285857841011</v>
@@ -3134,7 +3137,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B77" t="n">
         <v>5.31643995395056</v>
@@ -3145,7 +3148,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B78" t="n">
         <v>6.13562909040003</v>
@@ -3156,7 +3159,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B79" t="n">
         <v>6.18574619669695</v>
@@ -3167,7 +3170,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B80" t="n">
         <v>7.74805313923901</v>
@@ -3178,7 +3181,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B81" t="n">
         <v>4.15</v>
@@ -3187,7 +3190,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B82" t="n">
         <v>5.5919549423862</v>
@@ -3198,7 +3201,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B83" t="n">
         <v>5.77735182380815</v>
@@ -3209,7 +3212,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B84" t="n">
         <v>4.68877037702449</v>
@@ -3220,7 +3223,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B85" t="n">
         <v>5.14474069818737</v>
@@ -3231,7 +3234,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B86" t="n">
         <v>5.90212819176655</v>
@@ -3240,7 +3243,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B87" t="n">
         <v>7.15208943047978</v>
@@ -3249,7 +3252,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B88" t="n">
         <v>7.31515416840659</v>
@@ -3258,7 +3261,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B89" t="n">
         <v>5.66722656867065</v>
@@ -3267,7 +3270,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B90" t="n">
         <v>5.05901093912458</v>
@@ -3278,7 +3281,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B91" t="n">
         <v>4.14507290269118</v>
@@ -3289,7 +3292,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B92" t="n">
         <v>6.73</v>
@@ -3300,7 +3303,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B93" t="n">
         <v>5.2415849074117</v>
@@ -3309,7 +3312,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B94" t="n">
         <v>5.03468545496692</v>
@@ -3320,7 +3323,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B95" t="n">
         <v>4.79347355091767</v>
@@ -3331,7 +3334,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B96" t="n">
         <v>4.9592932953663</v>
@@ -3340,7 +3343,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B97" t="n">
         <v>6.63</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B98" t="n">
         <v>3.88090470446321</v>
@@ -3360,7 +3363,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B99" t="n">
         <v>4.51398226421349</v>
@@ -3369,7 +3372,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B100" t="n">
         <v>4.93654875481133</v>
